--- a/biology/Écologie/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(PO)/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(PO).xlsx
+++ b/biology/Écologie/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(PO)/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(PO).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(PO)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(PO)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 | PH | PO |
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(PO)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(PO)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,9 +526,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Po
-Poa
-Poa - Graminées
+          <t>Po</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Poa</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Poa - Graminées
 Poa annua  - Pâturin annuel
 Poa abbreviata
 Poa alpigena
@@ -542,19 +562,171 @@
 Poa saltuensis
 Poa stenantha
 Poa subcaerula
-Poa trivialis - Pâturin rude ou « Pâturin commun »
-Pod
-Podocarpus
+Poa trivialis - Pâturin rude ou « Pâturin commun »</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(PO)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(PO)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Po</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Pod</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Podocarpus
 Podocarpus macrophyllus
 Podostemon
-Podostemon ceratophyllum
-Poe
-Poecilanthe
-Poeppigia
-Poi
-Poiretia
-Pol
-Polanisia
+Podostemon ceratophyllum</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(PO)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(PO)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Po</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Poe</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Poecilanthe
+Poeppigia</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(PO)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(PO)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Po</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Poi</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Poiretia</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(PO)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(PO)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Po</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Pol</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Polanisia
 Polanisia dodecandra dodecandra 
 Polemonium - fam. Polémoniacées
 Polemonium caeruleum - Polémoine bleue
@@ -582,12 +754,88 @@
 Polygonum salicifolium - Renouée à feuille de saule
 Polygonum viviparum
 Polypogon
-Polypogon monspeliensis - Polypogon de Montpellier
-Pon
-Poncirus
-Poncirus trifoliata - Oranger trifolié
-Pop
-Populus - fam. Salicacées
+Polypogon monspeliensis - Polypogon de Montpellier</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(PO)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(PO)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Po</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Pon</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Poncirus
+Poncirus trifoliata - Oranger trifolié</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(PO)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(PO)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Po</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Pop</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Populus - fam. Salicacées
 Populus alba - Peuplier blanc
 Populus balsamifera - Peuplier baumier
 Populus deltoides - Peuplier noir d'Amérique
@@ -595,19 +843,133 @@
 Populus laurifolia
 Populus nigra - Peuplier noir
 Populus simonii - Peuplier de Simon
-Populus tremula - Tremble
-Por
-Portulaca - Portulacacées
+Populus tremula - Tremble</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(PO)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(PO)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Po</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Por</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Portulaca - Portulacacées
 Portulaca grandiflora - Pourpier à grande fleur
 Portulaca oleracea - pourpier
 Portulacaria (plante grasse)
 Portulacaria afra
-Portulacaria afra variegata
-Pos
-Posidonia - Posidoniacées
-Posidonia oceanica - Posidonia de l'Océan
-Pot
-Potamogeton - Potamogétonacées
+Portulacaria afra variegata</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(PO)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(PO)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Po</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Pos</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Posidonia - Posidoniacées
+Posidonia oceanica - Posidonia de l'Océan</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(PO)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(PO)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Po</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Pot</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Potamogeton - Potamogétonacées
 Potamogeton acutifolius - Potamot à feuilles aiguës
 Potamogeton alpinus - Potamot alpin
 Potamogeton amplifolius - Potamot à larges feuilles
